--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3977,28 +3977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3237.233000419905</v>
+        <v>3359.189096065238</v>
       </c>
       <c r="AB2" t="n">
-        <v>4429.325007815254</v>
+        <v>4596.190718200423</v>
       </c>
       <c r="AC2" t="n">
-        <v>4006.596445665891</v>
+        <v>4157.536726849389</v>
       </c>
       <c r="AD2" t="n">
-        <v>3237233.000419905</v>
+        <v>3359189.096065238</v>
       </c>
       <c r="AE2" t="n">
-        <v>4429325.007815254</v>
+        <v>4596190.718200424</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.234000283595461e-07</v>
+        <v>1.338479449030734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.005859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4006596.445665891</v>
+        <v>4157536.726849389</v>
       </c>
     </row>
     <row r="3">
@@ -4083,28 +4083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1533.387894790405</v>
+        <v>1618.58650688556</v>
       </c>
       <c r="AB3" t="n">
-        <v>2098.048965951773</v>
+        <v>2214.621465717853</v>
       </c>
       <c r="AC3" t="n">
-        <v>1897.814117271553</v>
+        <v>2003.26110127049</v>
       </c>
       <c r="AD3" t="n">
-        <v>1533387.894790405</v>
+        <v>1618586.50688556</v>
       </c>
       <c r="AE3" t="n">
-        <v>2098048.965951772</v>
+        <v>2214621.465717854</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.140466100466166e-06</v>
+        <v>2.110160876343627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.3251953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1897814.117271553</v>
+        <v>2003261.10127049</v>
       </c>
     </row>
     <row r="4">
@@ -4189,28 +4189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1236.562102200587</v>
+        <v>1309.735705882656</v>
       </c>
       <c r="AB4" t="n">
-        <v>1691.918821500615</v>
+        <v>1792.038174249982</v>
       </c>
       <c r="AC4" t="n">
-        <v>1530.444463799576</v>
+        <v>1621.008566040937</v>
       </c>
       <c r="AD4" t="n">
-        <v>1236562.102200587</v>
+        <v>1309735.705882655</v>
       </c>
       <c r="AE4" t="n">
-        <v>1691918.821500615</v>
+        <v>1792038.174249982</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.300122017928069e-06</v>
+        <v>2.40556612387106e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.68782552083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1530444.463799576</v>
+        <v>1621008.566040937</v>
       </c>
     </row>
     <row r="5">
@@ -4295,28 +4295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1103.759089982185</v>
+        <v>1176.847352809682</v>
       </c>
       <c r="AB5" t="n">
-        <v>1510.211881327996</v>
+        <v>1610.214466955166</v>
       </c>
       <c r="AC5" t="n">
-        <v>1366.07937896974</v>
+        <v>1456.537858179162</v>
       </c>
       <c r="AD5" t="n">
-        <v>1103759.089982185</v>
+        <v>1176847.352809682</v>
       </c>
       <c r="AE5" t="n">
-        <v>1510211.881327996</v>
+        <v>1610214.466955166</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.387139161246486e-06</v>
+        <v>2.566570621353849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.95540364583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1366079.37896974</v>
+        <v>1456537.858179162</v>
       </c>
     </row>
     <row r="6">
@@ -4401,28 +4401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1036.505410196078</v>
+        <v>1097.568754119041</v>
       </c>
       <c r="AB6" t="n">
-        <v>1418.192429621695</v>
+        <v>1501.741990701699</v>
       </c>
       <c r="AC6" t="n">
-        <v>1282.842134584176</v>
+        <v>1358.41784281725</v>
       </c>
       <c r="AD6" t="n">
-        <v>1036505.410196078</v>
+        <v>1097568.754119041</v>
       </c>
       <c r="AE6" t="n">
-        <v>1418192.429621695</v>
+        <v>1501741.990701699</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.439330774030816e-06</v>
+        <v>2.663138769522174e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.55826822916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1282842.134584176</v>
+        <v>1358417.84281725</v>
       </c>
     </row>
     <row r="7">
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>987.1457381950273</v>
+        <v>1048.038489917398</v>
       </c>
       <c r="AB7" t="n">
-        <v>1350.656348794815</v>
+        <v>1433.972498099972</v>
       </c>
       <c r="AC7" t="n">
-        <v>1221.751602523929</v>
+        <v>1297.116175474351</v>
       </c>
       <c r="AD7" t="n">
-        <v>987145.7381950273</v>
+        <v>1048038.489917397</v>
       </c>
       <c r="AE7" t="n">
-        <v>1350656.348794815</v>
+        <v>1433972.498099972</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.475556795068955e-06</v>
+        <v>2.730166392937755e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.2978515625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1221751.602523929</v>
+        <v>1297116.175474352</v>
       </c>
     </row>
     <row r="8">
@@ -4613,28 +4613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>948.6248889450592</v>
+        <v>1009.517640667429</v>
       </c>
       <c r="AB8" t="n">
-        <v>1297.95042343108</v>
+        <v>1381.266572736236</v>
       </c>
       <c r="AC8" t="n">
-        <v>1174.075856703677</v>
+        <v>1249.440429654099</v>
       </c>
       <c r="AD8" t="n">
-        <v>948624.8889450592</v>
+        <v>1009517.640667429</v>
       </c>
       <c r="AE8" t="n">
-        <v>1297950.42343108</v>
+        <v>1381266.572736236</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.503566605149991e-06</v>
+        <v>2.781991874960112e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.10579427083333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1174075.856703677</v>
+        <v>1249440.429654099</v>
       </c>
     </row>
     <row r="9">
@@ -4719,28 +4719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>905.3714441705756</v>
+        <v>978.3743661435014</v>
       </c>
       <c r="AB9" t="n">
-        <v>1238.769152083322</v>
+        <v>1338.654970588294</v>
       </c>
       <c r="AC9" t="n">
-        <v>1120.542762831913</v>
+        <v>1210.895619009397</v>
       </c>
       <c r="AD9" t="n">
-        <v>905371.4441705756</v>
+        <v>978374.3661435015</v>
       </c>
       <c r="AE9" t="n">
-        <v>1238769.152083322</v>
+        <v>1338654.970588294</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.524013766509147e-06</v>
+        <v>2.819824476836432e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.970703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1120542.762831914</v>
+        <v>1210895.619009397</v>
       </c>
     </row>
     <row r="10">
@@ -4825,28 +4825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>874.9099535203084</v>
+        <v>935.8879565886991</v>
       </c>
       <c r="AB10" t="n">
-        <v>1197.090396709504</v>
+        <v>1280.52319066731</v>
       </c>
       <c r="AC10" t="n">
-        <v>1082.841769374473</v>
+        <v>1158.311854575607</v>
       </c>
       <c r="AD10" t="n">
-        <v>874909.9535203084</v>
+        <v>935887.9565886991</v>
       </c>
       <c r="AE10" t="n">
-        <v>1197090.396709504</v>
+        <v>1280523.19066731</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.53923242998651e-06</v>
+        <v>2.847982988735246e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.873046875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1082841.769374473</v>
+        <v>1158311.854575607</v>
       </c>
     </row>
     <row r="11">
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>849.0807300777078</v>
+        <v>910.0587331460987</v>
       </c>
       <c r="AB11" t="n">
-        <v>1161.749713690422</v>
+        <v>1245.182507648228</v>
       </c>
       <c r="AC11" t="n">
-        <v>1050.873951541771</v>
+        <v>1126.344036742906</v>
       </c>
       <c r="AD11" t="n">
-        <v>849080.7300777078</v>
+        <v>910058.7331460987</v>
       </c>
       <c r="AE11" t="n">
-        <v>1161749.713690422</v>
+        <v>1245182.507648228</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.55277050485901e-06</v>
+        <v>2.873031971712718e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.786783854166666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1050873.951541771</v>
+        <v>1126344.036742906</v>
       </c>
     </row>
     <row r="12">
@@ -5037,28 +5037,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>827.9595356547221</v>
+        <v>888.9375387231129</v>
       </c>
       <c r="AB12" t="n">
-        <v>1132.850763679558</v>
+        <v>1216.283557637364</v>
       </c>
       <c r="AC12" t="n">
-        <v>1024.733076760014</v>
+        <v>1100.203161961148</v>
       </c>
       <c r="AD12" t="n">
-        <v>827959.5356547221</v>
+        <v>888937.5387231129</v>
       </c>
       <c r="AE12" t="n">
-        <v>1132850.763679558</v>
+        <v>1216283.557637364</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.561827010118545e-06</v>
+        <v>2.889788877566613e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.729817708333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1024733.076760014</v>
+        <v>1100203.161961148</v>
       </c>
     </row>
     <row r="13">
@@ -5143,28 +5143,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>820.2553653052177</v>
+        <v>881.2333683736085</v>
       </c>
       <c r="AB13" t="n">
-        <v>1122.309577923358</v>
+        <v>1205.742371881164</v>
       </c>
       <c r="AC13" t="n">
-        <v>1015.197926977738</v>
+        <v>1090.668012178873</v>
       </c>
       <c r="AD13" t="n">
-        <v>820255.3653052177</v>
+        <v>881233.3683736086</v>
       </c>
       <c r="AE13" t="n">
-        <v>1122309.577923358</v>
+        <v>1205742.371881164</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.566308579731511e-06</v>
+        <v>2.89808095469019e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.7021484375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1015197.926977738</v>
+        <v>1090668.012178873</v>
       </c>
     </row>
     <row r="14">
@@ -5249,28 +5249,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>824.8587025268509</v>
+        <v>885.8367055952418</v>
       </c>
       <c r="AB14" t="n">
-        <v>1128.608066994902</v>
+        <v>1212.040860952708</v>
       </c>
       <c r="AC14" t="n">
-        <v>1020.895297092279</v>
+        <v>1096.365382293413</v>
       </c>
       <c r="AD14" t="n">
-        <v>824858.702526851</v>
+        <v>885836.7055952419</v>
       </c>
       <c r="AE14" t="n">
-        <v>1128608.066994902</v>
+        <v>1212040.860952708</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.565281553361873e-06</v>
+        <v>2.896180687016038e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.708658854166666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1020895.297092279</v>
+        <v>1096365.382293413</v>
       </c>
     </row>
   </sheetData>
@@ -5546,28 +5546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2235.696218570234</v>
+        <v>2341.569627764689</v>
       </c>
       <c r="AB2" t="n">
-        <v>3058.978198204038</v>
+        <v>3203.838867469065</v>
       </c>
       <c r="AC2" t="n">
-        <v>2767.033612270195</v>
+        <v>2898.068982573789</v>
       </c>
       <c r="AD2" t="n">
-        <v>2235696.218570234</v>
+        <v>2341569.627764689</v>
       </c>
       <c r="AE2" t="n">
-        <v>3058978.198204038</v>
+        <v>3203838.867469065</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.870444968651955e-07</v>
+        <v>1.690843710729952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.72298177083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2767033.612270195</v>
+        <v>2898068.982573789</v>
       </c>
     </row>
     <row r="3">
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1227.472484706635</v>
+        <v>1297.969506156918</v>
       </c>
       <c r="AB3" t="n">
-        <v>1679.482005839769</v>
+        <v>1775.939140697132</v>
       </c>
       <c r="AC3" t="n">
-        <v>1519.19460037022</v>
+        <v>1606.446001655235</v>
       </c>
       <c r="AD3" t="n">
-        <v>1227472.484706635</v>
+        <v>1297969.506156918</v>
       </c>
       <c r="AE3" t="n">
-        <v>1679482.005839769</v>
+        <v>1775939.140697132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.274836706677234e-06</v>
+        <v>2.430035511533606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1519194.60037022</v>
+        <v>1606446.001655235</v>
       </c>
     </row>
     <row r="4">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1025.538812828713</v>
+        <v>1084.35746300085</v>
       </c>
       <c r="AB4" t="n">
-        <v>1403.187447291536</v>
+        <v>1483.665719352761</v>
       </c>
       <c r="AC4" t="n">
-        <v>1269.269206707983</v>
+        <v>1342.066745435649</v>
       </c>
       <c r="AD4" t="n">
-        <v>1025538.812828713</v>
+        <v>1084357.46300085</v>
       </c>
       <c r="AE4" t="n">
-        <v>1403187.447291536</v>
+        <v>1483665.719352762</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.41855645965365e-06</v>
+        <v>2.703987541320863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.08235677083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1269269.206707983</v>
+        <v>1342066.745435649</v>
       </c>
     </row>
     <row r="5">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>922.8969563852078</v>
+        <v>981.8008579033658</v>
       </c>
       <c r="AB5" t="n">
-        <v>1262.748331066413</v>
+        <v>1343.343247780288</v>
       </c>
       <c r="AC5" t="n">
-        <v>1142.233402627848</v>
+        <v>1215.136453606226</v>
       </c>
       <c r="AD5" t="n">
-        <v>922896.9563852078</v>
+        <v>981800.8579033657</v>
       </c>
       <c r="AE5" t="n">
-        <v>1262748.331066413</v>
+        <v>1343343.247780288</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.495438800627594e-06</v>
+        <v>2.850537148653294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5126953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1142233.402627848</v>
+        <v>1215136.453606226</v>
       </c>
     </row>
     <row r="6">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>866.2485710337069</v>
+        <v>924.9818803512724</v>
       </c>
       <c r="AB6" t="n">
-        <v>1185.239511078109</v>
+        <v>1265.601016017136</v>
       </c>
       <c r="AC6" t="n">
-        <v>1072.121915634915</v>
+        <v>1144.813831330642</v>
       </c>
       <c r="AD6" t="n">
-        <v>866248.5710337069</v>
+        <v>924981.8803512724</v>
       </c>
       <c r="AE6" t="n">
-        <v>1185239.511078109</v>
+        <v>1265601.016017136</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.542476112253612e-06</v>
+        <v>2.940197523993613e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.19205729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1072121.915634915</v>
+        <v>1144813.831330642</v>
       </c>
     </row>
     <row r="7">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>810.2380642821726</v>
+        <v>880.6496553693329</v>
       </c>
       <c r="AB7" t="n">
-        <v>1108.603464731497</v>
+        <v>1204.943709997114</v>
       </c>
       <c r="AC7" t="n">
-        <v>1002.799905992257</v>
+        <v>1089.945573464107</v>
       </c>
       <c r="AD7" t="n">
-        <v>810238.0642821726</v>
+        <v>880649.6553693329</v>
       </c>
       <c r="AE7" t="n">
-        <v>1108603.464731497</v>
+        <v>1204943.709997114</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.572900656734507e-06</v>
+        <v>2.998191401267125e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.9951171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1002799.905992257</v>
+        <v>1089945.573464107</v>
       </c>
     </row>
     <row r="8">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>770.197552328196</v>
+        <v>829.0161129917822</v>
       </c>
       <c r="AB8" t="n">
-        <v>1053.818269813349</v>
+        <v>1134.296419405026</v>
       </c>
       <c r="AC8" t="n">
-        <v>953.2433331855938</v>
+        <v>1026.040761132033</v>
       </c>
       <c r="AD8" t="n">
-        <v>770197.552328196</v>
+        <v>829016.1129917821</v>
       </c>
       <c r="AE8" t="n">
-        <v>1053818.269813349</v>
+        <v>1134296.419405026</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.599075423573626e-06</v>
+        <v>3.048084546477035e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>953243.3331855937</v>
+        <v>1026040.761132033</v>
       </c>
     </row>
     <row r="9">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>749.554719394549</v>
+        <v>808.3732800581353</v>
       </c>
       <c r="AB9" t="n">
-        <v>1025.573835096019</v>
+        <v>1106.051984687695</v>
       </c>
       <c r="AC9" t="n">
-        <v>927.6945076763718</v>
+        <v>1000.491935622811</v>
       </c>
       <c r="AD9" t="n">
-        <v>749554.719394549</v>
+        <v>808373.2800581353</v>
       </c>
       <c r="AE9" t="n">
-        <v>1025573.835096019</v>
+        <v>1106051.984687695</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.610762312088509e-06</v>
+        <v>3.07036155965194e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.759114583333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>927694.5076763718</v>
+        <v>1000491.935622811</v>
       </c>
     </row>
     <row r="10">
@@ -6394,28 +6394,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>746.0232754420416</v>
+        <v>804.8418361056277</v>
       </c>
       <c r="AB10" t="n">
-        <v>1020.741957683886</v>
+        <v>1101.220107275563</v>
       </c>
       <c r="AC10" t="n">
-        <v>923.3237778628709</v>
+        <v>996.1212058093105</v>
       </c>
       <c r="AD10" t="n">
-        <v>746023.2754420416</v>
+        <v>804841.8361056277</v>
       </c>
       <c r="AE10" t="n">
-        <v>1020741.957683886</v>
+        <v>1101220.107275563</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.613949645319841e-06</v>
+        <v>3.076437108699641e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>923323.7778628708</v>
+        <v>996121.2058093104</v>
       </c>
     </row>
     <row r="11">
@@ -6500,28 +6500,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>749.0730092828338</v>
+        <v>807.89156994642</v>
       </c>
       <c r="AB11" t="n">
-        <v>1024.914738069619</v>
+        <v>1105.392887661296</v>
       </c>
       <c r="AC11" t="n">
-        <v>927.0983139451237</v>
+        <v>999.8957418915633</v>
       </c>
       <c r="AD11" t="n">
-        <v>749073.0092828338</v>
+        <v>807891.5699464199</v>
       </c>
       <c r="AE11" t="n">
-        <v>1024914.738069619</v>
+        <v>1105392.887661296</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.614529160452811e-06</v>
+        <v>3.077541753981042e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.736328125</v>
       </c>
       <c r="AH11" t="n">
-        <v>927098.3139451237</v>
+        <v>999895.7418915633</v>
       </c>
     </row>
   </sheetData>
@@ -6797,28 +6797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>876.0276108099615</v>
+        <v>938.7230144110863</v>
       </c>
       <c r="AB2" t="n">
-        <v>1198.619624720767</v>
+        <v>1284.402241853824</v>
       </c>
       <c r="AC2" t="n">
-        <v>1084.225050010626</v>
+        <v>1161.820694561163</v>
       </c>
       <c r="AD2" t="n">
-        <v>876027.6108099616</v>
+        <v>938723.0144110863</v>
       </c>
       <c r="AE2" t="n">
-        <v>1198619.624720767</v>
+        <v>1284402.241853824</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415203298816442e-06</v>
+        <v>3.014012663623135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1084225.050010626</v>
+        <v>1161820.694561162</v>
       </c>
     </row>
     <row r="3">
@@ -6903,28 +6903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>613.206647142203</v>
+        <v>665.4386082521369</v>
       </c>
       <c r="AB3" t="n">
-        <v>839.0163873879462</v>
+        <v>910.4824608900517</v>
       </c>
       <c r="AC3" t="n">
-        <v>758.9418409425356</v>
+        <v>823.5872926928643</v>
       </c>
       <c r="AD3" t="n">
-        <v>613206.6471422029</v>
+        <v>665438.6082521369</v>
       </c>
       <c r="AE3" t="n">
-        <v>839016.3873879462</v>
+        <v>910482.4608900517</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.690785877071993e-06</v>
+        <v>3.600931434538096e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.37434895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>758941.8409425355</v>
+        <v>823587.2926928642</v>
       </c>
     </row>
     <row r="4">
@@ -7009,28 +7009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>577.0626466189752</v>
+        <v>629.294607728909</v>
       </c>
       <c r="AB4" t="n">
-        <v>789.5625713113012</v>
+        <v>861.0286448134069</v>
       </c>
       <c r="AC4" t="n">
-        <v>714.2078276633788</v>
+        <v>778.8532794137075</v>
       </c>
       <c r="AD4" t="n">
-        <v>577062.6466189752</v>
+        <v>629294.607728909</v>
       </c>
       <c r="AE4" t="n">
-        <v>789562.5713113012</v>
+        <v>861028.6448134069</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.736590568412865e-06</v>
+        <v>3.698483439872025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.10091145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>714207.8276633788</v>
+        <v>778853.2794137074</v>
       </c>
     </row>
   </sheetData>
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1240.372762748864</v>
+        <v>1327.976449409324</v>
       </c>
       <c r="AB2" t="n">
-        <v>1697.132735377248</v>
+        <v>1816.99596426798</v>
       </c>
       <c r="AC2" t="n">
-        <v>1535.160769053597</v>
+        <v>1643.584419608096</v>
       </c>
       <c r="AD2" t="n">
-        <v>1240372.762748864</v>
+        <v>1327976.449409324</v>
       </c>
       <c r="AE2" t="n">
-        <v>1697132.735377248</v>
+        <v>1816995.96426798</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.203242756027354e-06</v>
+        <v>2.442998793853666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.94694010416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1535160.769053597</v>
+        <v>1643584.419608096</v>
       </c>
     </row>
     <row r="3">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>824.8294656822368</v>
+        <v>879.6885354217897</v>
       </c>
       <c r="AB3" t="n">
-        <v>1128.568063854263</v>
+        <v>1203.628663283266</v>
       </c>
       <c r="AC3" t="n">
-        <v>1020.859111795237</v>
+        <v>1088.756032962949</v>
       </c>
       <c r="AD3" t="n">
-        <v>824829.4656822368</v>
+        <v>879688.5354217896</v>
       </c>
       <c r="AE3" t="n">
-        <v>1128568.063854263</v>
+        <v>1203628.663283266</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.524004385333361e-06</v>
+        <v>3.094255798796147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.0107421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1020859.111795237</v>
+        <v>1088756.032962949</v>
       </c>
     </row>
     <row r="4">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>701.7709403532103</v>
+        <v>756.5446692381914</v>
       </c>
       <c r="AB4" t="n">
-        <v>960.1939605401079</v>
+        <v>1035.137792846913</v>
       </c>
       <c r="AC4" t="n">
-        <v>868.554396586847</v>
+        <v>936.3456947226201</v>
       </c>
       <c r="AD4" t="n">
-        <v>701770.9403532103</v>
+        <v>756544.6692381914</v>
       </c>
       <c r="AE4" t="n">
-        <v>960193.9605401079</v>
+        <v>1035137.792846913</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.639585801743529e-06</v>
+        <v>3.328926034264009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>868554.396586847</v>
+        <v>936345.6947226201</v>
       </c>
     </row>
     <row r="5">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>633.8142398998118</v>
+        <v>699.4743344678706</v>
       </c>
       <c r="AB5" t="n">
-        <v>867.2126049417349</v>
+        <v>957.051643048685</v>
       </c>
       <c r="AC5" t="n">
-        <v>784.4470510666304</v>
+        <v>865.7119774665351</v>
       </c>
       <c r="AD5" t="n">
-        <v>633814.2398998118</v>
+        <v>699474.3344678705</v>
       </c>
       <c r="AE5" t="n">
-        <v>867212.6049417348</v>
+        <v>957051.643048685</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.691138619054041e-06</v>
+        <v>3.433596076845572e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.923502604166666</v>
       </c>
       <c r="AH5" t="n">
-        <v>784447.0510666304</v>
+        <v>865711.9774665352</v>
       </c>
     </row>
     <row r="6">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>629.1497319851328</v>
+        <v>684.0087122161344</v>
       </c>
       <c r="AB6" t="n">
-        <v>860.8304194293053</v>
+        <v>935.8908963887601</v>
       </c>
       <c r="AC6" t="n">
-        <v>778.6739723820536</v>
+        <v>846.5707827685389</v>
       </c>
       <c r="AD6" t="n">
-        <v>629149.7319851328</v>
+        <v>684008.7122161344</v>
       </c>
       <c r="AE6" t="n">
-        <v>860830.4194293052</v>
+        <v>935890.8963887601</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.695469055708124e-06</v>
+        <v>3.442388360422423e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.8974609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>778673.9723820536</v>
+        <v>846570.7827685389</v>
       </c>
     </row>
   </sheetData>
@@ -8027,28 +8027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>642.5211164450517</v>
+        <v>702.6294540264204</v>
       </c>
       <c r="AB2" t="n">
-        <v>879.1257375512156</v>
+        <v>961.3686168227442</v>
       </c>
       <c r="AC2" t="n">
-        <v>795.2232110200489</v>
+        <v>869.6169453225089</v>
       </c>
       <c r="AD2" t="n">
-        <v>642521.1164450517</v>
+        <v>702629.4540264204</v>
       </c>
       <c r="AE2" t="n">
-        <v>879125.7375512156</v>
+        <v>961368.6168227443</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.601218430684143e-06</v>
+        <v>3.565600688679019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.37858072916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>795223.2110200489</v>
+        <v>869616.9453225088</v>
       </c>
     </row>
     <row r="3">
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>527.6577003316144</v>
+        <v>577.8048904705612</v>
       </c>
       <c r="AB3" t="n">
-        <v>721.9645442085322</v>
+        <v>790.5781420945292</v>
       </c>
       <c r="AC3" t="n">
-        <v>653.061261392871</v>
+        <v>715.1264737964179</v>
       </c>
       <c r="AD3" t="n">
-        <v>527657.7003316144</v>
+        <v>577804.8904705612</v>
       </c>
       <c r="AE3" t="n">
-        <v>721964.5442085322</v>
+        <v>790578.1420945292</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.752329572342555e-06</v>
+        <v>3.902095685513458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.39713541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>653061.2613928709</v>
+        <v>715126.4737964179</v>
       </c>
     </row>
     <row r="4">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>532.9579036758449</v>
+        <v>583.1050938147919</v>
       </c>
       <c r="AB4" t="n">
-        <v>729.2165162525771</v>
+        <v>797.8301141385741</v>
       </c>
       <c r="AC4" t="n">
-        <v>659.6211154032388</v>
+        <v>721.6863278067859</v>
       </c>
       <c r="AD4" t="n">
-        <v>532957.9036758449</v>
+        <v>583105.0938147919</v>
       </c>
       <c r="AE4" t="n">
-        <v>729216.5162525771</v>
+        <v>797830.1141385741</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.752105703984543e-06</v>
+        <v>3.901597174407038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.39876302083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>659621.1154032388</v>
+        <v>721686.3278067859</v>
       </c>
     </row>
   </sheetData>
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2453.544514100056</v>
+        <v>2560.354335702362</v>
       </c>
       <c r="AB2" t="n">
-        <v>3357.047846936462</v>
+        <v>3503.18975696951</v>
       </c>
       <c r="AC2" t="n">
-        <v>3036.655912070964</v>
+        <v>3168.850243321911</v>
       </c>
       <c r="AD2" t="n">
-        <v>2453544.514100056</v>
+        <v>2560354.335702362</v>
       </c>
       <c r="AE2" t="n">
-        <v>3357047.846936462</v>
+        <v>3503189.75696951</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.43564775839795e-07</v>
+        <v>1.594981630287844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.46842447916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3036655.912070964</v>
+        <v>3168850.243321911</v>
       </c>
     </row>
     <row r="3">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1296.499300283937</v>
+        <v>1379.554571722509</v>
       </c>
       <c r="AB3" t="n">
-        <v>1773.927540160814</v>
+        <v>1887.567426683042</v>
       </c>
       <c r="AC3" t="n">
-        <v>1604.626385450805</v>
+        <v>1707.420640697933</v>
       </c>
       <c r="AD3" t="n">
-        <v>1296499.300283937</v>
+        <v>1379554.571722509</v>
       </c>
       <c r="AE3" t="n">
-        <v>1773927.540160814</v>
+        <v>1887567.426683041</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240316846174068e-06</v>
+        <v>2.345146030326778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56022135416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1604626.385450805</v>
+        <v>1707420.640697933</v>
       </c>
     </row>
     <row r="4">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1074.988410692702</v>
+        <v>1134.374651839212</v>
       </c>
       <c r="AB4" t="n">
-        <v>1470.846568651336</v>
+        <v>1552.101443724045</v>
       </c>
       <c r="AC4" t="n">
-        <v>1330.471036485376</v>
+        <v>1403.971060323079</v>
       </c>
       <c r="AD4" t="n">
-        <v>1074988.410692702</v>
+        <v>1134374.651839212</v>
       </c>
       <c r="AE4" t="n">
-        <v>1470846.568651336</v>
+        <v>1552101.443724045</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.389062978212539e-06</v>
+        <v>2.626389812633292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.2158203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1330471.036485376</v>
+        <v>1403971.060323079</v>
       </c>
     </row>
     <row r="5">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>968.5042080222927</v>
+        <v>1039.682249133272</v>
       </c>
       <c r="AB5" t="n">
-        <v>1325.150184806212</v>
+        <v>1422.539120807807</v>
       </c>
       <c r="AC5" t="n">
-        <v>1198.679711028271</v>
+        <v>1286.773983664104</v>
       </c>
       <c r="AD5" t="n">
-        <v>968504.2080222927</v>
+        <v>1039682.249133272</v>
       </c>
       <c r="AE5" t="n">
-        <v>1325150.184806212</v>
+        <v>1422539.120807806</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.466020436487269e-06</v>
+        <v>2.771898178768709e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.62662760416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1198679.711028271</v>
+        <v>1286773.983664104</v>
       </c>
     </row>
     <row r="6">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>908.9326611483788</v>
+        <v>968.2335614403174</v>
       </c>
       <c r="AB6" t="n">
-        <v>1243.641766262157</v>
+        <v>1324.779874212668</v>
       </c>
       <c r="AC6" t="n">
-        <v>1124.950341552278</v>
+        <v>1198.344742358042</v>
       </c>
       <c r="AD6" t="n">
-        <v>908932.6611483787</v>
+        <v>968233.5614403174</v>
       </c>
       <c r="AE6" t="n">
-        <v>1243641.766262157</v>
+        <v>1324779.874212668</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.514836734646612e-06</v>
+        <v>2.864198261765055e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.28483072916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1124950.341552278</v>
+        <v>1198344.742358042</v>
       </c>
     </row>
     <row r="7">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>864.6668927266684</v>
+        <v>923.967793018607</v>
       </c>
       <c r="AB7" t="n">
-        <v>1183.075389039697</v>
+        <v>1264.213496990208</v>
       </c>
       <c r="AC7" t="n">
-        <v>1070.164334366485</v>
+        <v>1143.558735172249</v>
       </c>
       <c r="AD7" t="n">
-        <v>864666.8927266684</v>
+        <v>923967.7930186071</v>
       </c>
       <c r="AE7" t="n">
-        <v>1183075.389039697</v>
+        <v>1264213.496990208</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.548625270431413e-06</v>
+        <v>2.928084397642918e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.06022135416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1070164.334366485</v>
+        <v>1143558.735172249</v>
       </c>
     </row>
     <row r="8">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>815.4583373386205</v>
+        <v>886.5510375950283</v>
       </c>
       <c r="AB8" t="n">
-        <v>1115.746072629522</v>
+        <v>1213.01824150892</v>
       </c>
       <c r="AC8" t="n">
-        <v>1009.260833417208</v>
+        <v>1097.249483021102</v>
       </c>
       <c r="AD8" t="n">
-        <v>815458.3373386204</v>
+        <v>886551.0375950283</v>
       </c>
       <c r="AE8" t="n">
-        <v>1115746.072629522</v>
+        <v>1213018.24150892</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.572650546584345e-06</v>
+        <v>2.973510516921512e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.905598958333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1009260.833417208</v>
+        <v>1097249.483021102</v>
       </c>
     </row>
     <row r="9">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>784.096800593294</v>
+        <v>843.4829522312531</v>
       </c>
       <c r="AB9" t="n">
-        <v>1072.835834481213</v>
+        <v>1154.090587084374</v>
       </c>
       <c r="AC9" t="n">
-        <v>970.445888172876</v>
+        <v>1043.945801229353</v>
       </c>
       <c r="AD9" t="n">
-        <v>784096.800593294</v>
+        <v>843482.952231253</v>
       </c>
       <c r="AE9" t="n">
-        <v>1072835.834481213</v>
+        <v>1154090.587084374</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.590262701214383e-06</v>
+        <v>3.006810939022155e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.796549479166666</v>
       </c>
       <c r="AH9" t="n">
-        <v>970445.8881728761</v>
+        <v>1043945.801229352</v>
       </c>
     </row>
     <row r="10">
@@ -9384,28 +9384,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>762.2116037102272</v>
+        <v>821.5977553481865</v>
       </c>
       <c r="AB10" t="n">
-        <v>1042.891542599057</v>
+        <v>1124.146295202217</v>
       </c>
       <c r="AC10" t="n">
-        <v>943.3594374808752</v>
+        <v>1016.859350537351</v>
       </c>
       <c r="AD10" t="n">
-        <v>762211.6037102272</v>
+        <v>821597.7553481865</v>
       </c>
       <c r="AE10" t="n">
-        <v>1042891.542599057</v>
+        <v>1124146.295202217</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.601174579626471e-06</v>
+        <v>3.027442722280161e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.729817708333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>943359.4374808752</v>
+        <v>1016859.350537351</v>
       </c>
     </row>
     <row r="11">
@@ -9490,28 +9490,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>765.3046013695497</v>
+        <v>824.6907530075088</v>
       </c>
       <c r="AB11" t="n">
-        <v>1047.123518449968</v>
+        <v>1128.378271053129</v>
       </c>
       <c r="AC11" t="n">
-        <v>947.1875194961909</v>
+        <v>1020.687432552667</v>
       </c>
       <c r="AD11" t="n">
-        <v>765304.6013695496</v>
+        <v>824690.7530075088</v>
       </c>
       <c r="AE11" t="n">
-        <v>1047123.518449968</v>
+        <v>1128378.271053129</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.600600270236361e-06</v>
+        <v>3.026356838950793e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.733072916666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>947187.5194961909</v>
+        <v>1020687.432552667</v>
       </c>
     </row>
     <row r="12">
@@ -9596,28 +9596,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>768.9044279203949</v>
+        <v>828.2905795583544</v>
       </c>
       <c r="AB12" t="n">
-        <v>1052.048959949974</v>
+        <v>1133.303712553134</v>
       </c>
       <c r="AC12" t="n">
-        <v>951.6428837723365</v>
+        <v>1025.142796828813</v>
       </c>
       <c r="AD12" t="n">
-        <v>768904.4279203949</v>
+        <v>828290.5795583543</v>
       </c>
       <c r="AE12" t="n">
-        <v>1052048.959949974</v>
+        <v>1133303.712553134</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.600025960846252e-06</v>
+        <v>3.025270955621424e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.736328125</v>
       </c>
       <c r="AH12" t="n">
-        <v>951642.8837723365</v>
+        <v>1025142.796828813</v>
       </c>
     </row>
   </sheetData>
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.7666604076322</v>
+        <v>585.4788534618532</v>
       </c>
       <c r="AB2" t="n">
-        <v>720.7453840746326</v>
+        <v>801.0779968105682</v>
       </c>
       <c r="AC2" t="n">
-        <v>651.9584561910488</v>
+        <v>724.6242371149967</v>
       </c>
       <c r="AD2" t="n">
-        <v>526766.6604076322</v>
+        <v>585478.8534618532</v>
       </c>
       <c r="AE2" t="n">
-        <v>720745.3840746327</v>
+        <v>801077.9968105681</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.706243139000837e-06</v>
+        <v>3.911676284790965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.927734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>651958.4561910487</v>
+        <v>724624.2371149968</v>
       </c>
     </row>
     <row r="3">
@@ -9999,28 +9999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.9709066786742</v>
+        <v>561.6830997328952</v>
       </c>
       <c r="AB3" t="n">
-        <v>688.1869840281086</v>
+        <v>768.5195967640441</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.5073841489636</v>
+        <v>695.1731650729116</v>
       </c>
       <c r="AD3" t="n">
-        <v>502970.9066786742</v>
+        <v>561683.0997328953</v>
       </c>
       <c r="AE3" t="n">
-        <v>688186.9840281085</v>
+        <v>768519.5967640441</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.750574531736206e-06</v>
+        <v>4.013308961676773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>622507.3841489636</v>
+        <v>695173.1650729117</v>
       </c>
     </row>
   </sheetData>
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1685.4221008332</v>
+        <v>1776.584426166457</v>
       </c>
       <c r="AB2" t="n">
-        <v>2306.06887393532</v>
+        <v>2430.80118925423</v>
       </c>
       <c r="AC2" t="n">
-        <v>2085.980897194925</v>
+        <v>2198.808935402702</v>
       </c>
       <c r="AD2" t="n">
-        <v>1685422.1008332</v>
+        <v>1776584.426166457</v>
       </c>
       <c r="AE2" t="n">
-        <v>2306068.87393532</v>
+        <v>2430801.18925423</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.031655007647984e-06</v>
+        <v>2.022029557585746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69986979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2085980.897194925</v>
+        <v>2198808.935402703</v>
       </c>
     </row>
     <row r="3">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1016.175655824655</v>
+        <v>1084.547399824598</v>
       </c>
       <c r="AB3" t="n">
-        <v>1390.376362805251</v>
+        <v>1483.925599294433</v>
       </c>
       <c r="AC3" t="n">
-        <v>1257.680794144598</v>
+        <v>1342.301822800431</v>
       </c>
       <c r="AD3" t="n">
-        <v>1016175.655824655</v>
+        <v>1084547.399824597</v>
       </c>
       <c r="AE3" t="n">
-        <v>1390376.362805251</v>
+        <v>1483925.599294433</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.390201645301663e-06</v>
+        <v>2.724776012296023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.650390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1257680.794144598</v>
+        <v>1342301.822800431</v>
       </c>
     </row>
     <row r="4">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>861.2209354614673</v>
+        <v>929.5073386068377</v>
       </c>
       <c r="AB4" t="n">
-        <v>1178.360478284543</v>
+        <v>1271.792947651528</v>
       </c>
       <c r="AC4" t="n">
-        <v>1065.899408076385</v>
+        <v>1150.414813700279</v>
       </c>
       <c r="AD4" t="n">
-        <v>861220.9354614674</v>
+        <v>929507.3386068377</v>
       </c>
       <c r="AE4" t="n">
-        <v>1178360.478284543</v>
+        <v>1271792.947651529</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.519469500509026e-06</v>
+        <v>2.978139222029203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.6591796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1065899.408076385</v>
+        <v>1150414.813700279</v>
       </c>
     </row>
     <row r="5">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>783.8957630681363</v>
+        <v>840.7869650554009</v>
       </c>
       <c r="AB5" t="n">
-        <v>1072.560766070143</v>
+        <v>1150.401818491812</v>
       </c>
       <c r="AC5" t="n">
-        <v>970.1970719048974</v>
+        <v>1040.609083534046</v>
       </c>
       <c r="AD5" t="n">
-        <v>783895.7630681363</v>
+        <v>840786.9650554009</v>
       </c>
       <c r="AE5" t="n">
-        <v>1072560.766070143</v>
+        <v>1150401.818491812</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.589626419616948e-06</v>
+        <v>3.115645813916726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.18880208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>970197.0719048973</v>
+        <v>1040609.083534046</v>
       </c>
     </row>
     <row r="6">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>719.6825094782831</v>
+        <v>787.8835717690819</v>
       </c>
       <c r="AB6" t="n">
-        <v>984.7013596196925</v>
+        <v>1078.01706186448</v>
       </c>
       <c r="AC6" t="n">
-        <v>890.7228438946267</v>
+        <v>975.1326264865822</v>
       </c>
       <c r="AD6" t="n">
-        <v>719682.5094782831</v>
+        <v>787883.5717690819</v>
       </c>
       <c r="AE6" t="n">
-        <v>984701.3596196926</v>
+        <v>1078017.06186448</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.631123490919081e-06</v>
+        <v>3.196979500182112e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.930013020833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>890722.8438946267</v>
+        <v>975132.6264865822</v>
       </c>
     </row>
     <row r="7">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>692.4868753743841</v>
+        <v>749.4633287076691</v>
       </c>
       <c r="AB7" t="n">
-        <v>947.4910932520381</v>
+        <v>1025.448790326357</v>
       </c>
       <c r="AC7" t="n">
-        <v>857.0638731241643</v>
+        <v>927.5813970040252</v>
       </c>
       <c r="AD7" t="n">
-        <v>692486.8753743841</v>
+        <v>749463.3287076692</v>
       </c>
       <c r="AE7" t="n">
-        <v>947491.0932520381</v>
+        <v>1025448.790326357</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.651822269889928e-06</v>
+        <v>3.237548820909211e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>857063.8731241643</v>
+        <v>927581.3970040253</v>
       </c>
     </row>
     <row r="8">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>689.7030005167995</v>
+        <v>746.6794538500844</v>
       </c>
       <c r="AB8" t="n">
-        <v>943.6820728559999</v>
+        <v>1021.639769930319</v>
       </c>
       <c r="AC8" t="n">
-        <v>853.6183802887304</v>
+        <v>924.1359041685912</v>
       </c>
       <c r="AD8" t="n">
-        <v>689703.0005167995</v>
+        <v>746679.4538500845</v>
       </c>
       <c r="AE8" t="n">
-        <v>943682.0728559999</v>
+        <v>1021639.769930319</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.653513997017354e-06</v>
+        <v>3.240864582699406e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.794921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>853618.3802887304</v>
+        <v>924135.9041685913</v>
       </c>
     </row>
   </sheetData>
@@ -11229,28 +11229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2045.656435502336</v>
+        <v>2138.823543138923</v>
       </c>
       <c r="AB2" t="n">
-        <v>2798.957383046846</v>
+        <v>2926.432729957928</v>
       </c>
       <c r="AC2" t="n">
-        <v>2531.828818770214</v>
+        <v>2647.138097484875</v>
       </c>
       <c r="AD2" t="n">
-        <v>2045656.435502336</v>
+        <v>2138823.543138923</v>
       </c>
       <c r="AE2" t="n">
-        <v>2798957.383046846</v>
+        <v>2926432.729957927</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.328137578113596e-07</v>
+        <v>1.793523886364962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.01171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2531828.818770214</v>
+        <v>2647138.097484875</v>
       </c>
     </row>
     <row r="3">
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1158.681302965776</v>
+        <v>1228.471315215782</v>
       </c>
       <c r="AB3" t="n">
-        <v>1585.358876129175</v>
+        <v>1680.848649807676</v>
       </c>
       <c r="AC3" t="n">
-        <v>1434.054450056564</v>
+        <v>1520.430813755927</v>
       </c>
       <c r="AD3" t="n">
-        <v>1158681.302965776</v>
+        <v>1228471.315215782</v>
       </c>
       <c r="AE3" t="n">
-        <v>1585358.876129175</v>
+        <v>1680848.649807676</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312003964159052e-06</v>
+        <v>2.522594064484889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1434054.450056564</v>
+        <v>1520430.813755927</v>
       </c>
     </row>
     <row r="4">
@@ -11441,28 +11441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>961.3653279978673</v>
+        <v>1031.155250739323</v>
       </c>
       <c r="AB4" t="n">
-        <v>1315.382454211634</v>
+        <v>1410.872105420586</v>
       </c>
       <c r="AC4" t="n">
-        <v>1189.844198932544</v>
+        <v>1276.220451850681</v>
       </c>
       <c r="AD4" t="n">
-        <v>961365.3279978674</v>
+        <v>1031155.250739323</v>
       </c>
       <c r="AE4" t="n">
-        <v>1315382.454211634</v>
+        <v>1410872.105420586</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.452018655934647e-06</v>
+        <v>2.791800743780393e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.92936197916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1189844.198932544</v>
+        <v>1276220.451850681</v>
       </c>
     </row>
     <row r="5">
@@ -11547,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>877.8406390673174</v>
+        <v>935.9847740513197</v>
       </c>
       <c r="AB5" t="n">
-        <v>1201.100289967643</v>
+        <v>1280.655660590952</v>
       </c>
       <c r="AC5" t="n">
-        <v>1086.468964047975</v>
+        <v>1158.43168175566</v>
       </c>
       <c r="AD5" t="n">
-        <v>877840.6390673174</v>
+        <v>935984.7740513197</v>
       </c>
       <c r="AE5" t="n">
-        <v>1201100.289967643</v>
+        <v>1280655.660590952</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.5252436096418e-06</v>
+        <v>2.932590587896635e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.4052734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1086468.964047975</v>
+        <v>1158431.68175566</v>
       </c>
     </row>
     <row r="6">
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>824.217177240603</v>
+        <v>882.3613122246052</v>
       </c>
       <c r="AB6" t="n">
-        <v>1127.73030379616</v>
+        <v>1207.285674419468</v>
       </c>
       <c r="AC6" t="n">
-        <v>1020.101306381276</v>
+        <v>1092.06402408896</v>
       </c>
       <c r="AD6" t="n">
-        <v>824217.1772406029</v>
+        <v>882361.3122246051</v>
       </c>
       <c r="AE6" t="n">
-        <v>1127730.30379616</v>
+        <v>1207285.674419469</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.569802602776512e-06</v>
+        <v>3.018264301293602e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.10904947916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1020101.306381276</v>
+        <v>1092064.02408896</v>
       </c>
     </row>
     <row r="7">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>766.7627613694539</v>
+        <v>836.4673432563379</v>
       </c>
       <c r="AB7" t="n">
-        <v>1049.118637291316</v>
+        <v>1144.491521378071</v>
       </c>
       <c r="AC7" t="n">
-        <v>948.9922269954876</v>
+        <v>1035.262856881686</v>
       </c>
       <c r="AD7" t="n">
-        <v>766762.7613694539</v>
+        <v>836467.3432563379</v>
       </c>
       <c r="AE7" t="n">
-        <v>1049118.637291316</v>
+        <v>1144491.521378071</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.602368694039081e-06</v>
+        <v>3.080879225308016e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.903971354166666</v>
       </c>
       <c r="AH7" t="n">
-        <v>948992.2269954876</v>
+        <v>1035262.856881686</v>
       </c>
     </row>
     <row r="8">
@@ -11865,28 +11865,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>735.6467430647093</v>
+        <v>793.8761293947323</v>
       </c>
       <c r="AB8" t="n">
-        <v>1006.54432830492</v>
+        <v>1086.216343580879</v>
       </c>
       <c r="AC8" t="n">
-        <v>910.4811503053354</v>
+        <v>982.5493802637321</v>
       </c>
       <c r="AD8" t="n">
-        <v>735646.7430647094</v>
+        <v>793876.1293947323</v>
       </c>
       <c r="AE8" t="n">
-        <v>1006544.32830492</v>
+        <v>1086216.343580879</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.620894314817189e-06</v>
+        <v>3.116498493459928e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.7900390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>910481.1503053354</v>
+        <v>982549.3802637322</v>
       </c>
     </row>
     <row r="9">
@@ -11971,28 +11971,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>726.4363458519508</v>
+        <v>784.6657321819738</v>
       </c>
       <c r="AB9" t="n">
-        <v>993.9422565043767</v>
+        <v>1073.614271780335</v>
       </c>
       <c r="AC9" t="n">
-        <v>899.0818025503166</v>
+        <v>971.1500325087136</v>
       </c>
       <c r="AD9" t="n">
-        <v>726436.3458519508</v>
+        <v>784665.7321819738</v>
       </c>
       <c r="AE9" t="n">
-        <v>993942.2565043767</v>
+        <v>1073614.271780335</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.625574471645342e-06</v>
+        <v>3.125497045414096e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.762369791666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>899081.8025503167</v>
+        <v>971150.0325087135</v>
       </c>
     </row>
     <row r="10">
@@ -12077,28 +12077,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>729.6190380214061</v>
+        <v>787.848424351429</v>
       </c>
       <c r="AB10" t="n">
-        <v>998.2969563410943</v>
+        <v>1077.968971617053</v>
       </c>
       <c r="AC10" t="n">
-        <v>903.0208959464777</v>
+        <v>975.0891259048745</v>
       </c>
       <c r="AD10" t="n">
-        <v>729619.0380214062</v>
+        <v>787848.424351429</v>
       </c>
       <c r="AE10" t="n">
-        <v>998296.9563410943</v>
+        <v>1077968.971617053</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.625769478179849e-06</v>
+        <v>3.125871985078853e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.7607421875</v>
       </c>
       <c r="AH10" t="n">
-        <v>903020.8959464777</v>
+        <v>975089.1259048745</v>
       </c>
     </row>
   </sheetData>
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2954.007463481043</v>
+        <v>3074.850766528717</v>
       </c>
       <c r="AB2" t="n">
-        <v>4041.803333146644</v>
+        <v>4207.146471606754</v>
       </c>
       <c r="AC2" t="n">
-        <v>3656.059295737582</v>
+        <v>3805.622317123604</v>
       </c>
       <c r="AD2" t="n">
-        <v>2954007.463481043</v>
+        <v>3074850.766528717</v>
       </c>
       <c r="AE2" t="n">
-        <v>4041803.333146644</v>
+        <v>4207146.471606754</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.614634690588324e-07</v>
+        <v>1.41854868857529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3656059.295737582</v>
+        <v>3805622.317123604</v>
       </c>
     </row>
     <row r="3">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1457.958620296697</v>
+        <v>1530.515842441465</v>
       </c>
       <c r="AB3" t="n">
-        <v>1994.843304884749</v>
+        <v>2094.119297221947</v>
       </c>
       <c r="AC3" t="n">
-        <v>1804.458259646711</v>
+        <v>1894.259490609977</v>
       </c>
       <c r="AD3" t="n">
-        <v>1457958.620296697</v>
+        <v>1530515.842441465</v>
       </c>
       <c r="AE3" t="n">
-        <v>1994843.304884749</v>
+        <v>2094119.297221947</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.171699442563646e-06</v>
+        <v>2.182787192283076e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1804458.259646711</v>
+        <v>1894259.490609977</v>
       </c>
     </row>
     <row r="4">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1180.889571541005</v>
+        <v>1253.446704177222</v>
       </c>
       <c r="AB4" t="n">
-        <v>1615.745208953465</v>
+        <v>1715.021078821115</v>
       </c>
       <c r="AC4" t="n">
-        <v>1461.54075392359</v>
+        <v>1551.341874105629</v>
       </c>
       <c r="AD4" t="n">
-        <v>1180889.571541005</v>
+        <v>1253446.704177222</v>
       </c>
       <c r="AE4" t="n">
-        <v>1615745.208953465</v>
+        <v>1715021.078821115</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.329431833385869e-06</v>
+        <v>2.476630672947046e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.52180989583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1461540.75392359</v>
+        <v>1551341.874105629</v>
       </c>
     </row>
     <row r="5">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1060.130048919144</v>
+        <v>1132.601840700789</v>
       </c>
       <c r="AB5" t="n">
-        <v>1450.516702568096</v>
+        <v>1549.675805313548</v>
       </c>
       <c r="AC5" t="n">
-        <v>1312.081424287974</v>
+        <v>1401.776921438075</v>
       </c>
       <c r="AD5" t="n">
-        <v>1060130.048919144</v>
+        <v>1132601.840700789</v>
       </c>
       <c r="AE5" t="n">
-        <v>1450516.702568096</v>
+        <v>1549675.805313548</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.411309625757787e-06</v>
+        <v>2.629162789998153e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.85286458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1312081.424287974</v>
+        <v>1401776.921438075</v>
       </c>
     </row>
     <row r="6">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>995.5564337713811</v>
+        <v>1055.935459622208</v>
       </c>
       <c r="AB6" t="n">
-        <v>1362.164233536084</v>
+        <v>1444.777480439809</v>
       </c>
       <c r="AC6" t="n">
-        <v>1232.161190896909</v>
+        <v>1306.889945464563</v>
       </c>
       <c r="AD6" t="n">
-        <v>995556.433771381</v>
+        <v>1055935.459622208</v>
       </c>
       <c r="AE6" t="n">
-        <v>1362164.233536084</v>
+        <v>1444777.480439809</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.462318549281441e-06</v>
+        <v>2.724188545678268e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.47526041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1232161.190896909</v>
+        <v>1306889.945464563</v>
       </c>
     </row>
     <row r="7">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>946.6562796863448</v>
+        <v>1007.035305537172</v>
       </c>
       <c r="AB7" t="n">
-        <v>1295.256885394395</v>
+        <v>1377.870132298121</v>
       </c>
       <c r="AC7" t="n">
-        <v>1171.63938615681</v>
+        <v>1246.368140724464</v>
       </c>
       <c r="AD7" t="n">
-        <v>946656.2796863448</v>
+        <v>1007035.305537172</v>
       </c>
       <c r="AE7" t="n">
-        <v>1295256.885394395</v>
+        <v>1377870.132298121</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.498928274836241e-06</v>
+        <v>2.792389687670084e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.2197265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1171639.38615681</v>
+        <v>1246368.140724464</v>
       </c>
     </row>
     <row r="8">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>907.1524774502547</v>
+        <v>967.5315033010817</v>
       </c>
       <c r="AB8" t="n">
-        <v>1241.206040390222</v>
+        <v>1323.819287293947</v>
       </c>
       <c r="AC8" t="n">
-        <v>1122.747077938997</v>
+        <v>1197.475832506651</v>
       </c>
       <c r="AD8" t="n">
-        <v>907152.4774502546</v>
+        <v>967531.5033010817</v>
       </c>
       <c r="AE8" t="n">
-        <v>1241206.040390222</v>
+        <v>1323819.287293947</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.525656197863395e-06</v>
+        <v>2.842181781052284e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.04069010416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1122747.077938997</v>
+        <v>1197475.832506651</v>
       </c>
     </row>
     <row r="9">
@@ -13116,28 +13116,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>862.828997371232</v>
+        <v>935.2154482983062</v>
       </c>
       <c r="AB9" t="n">
-        <v>1180.560699532168</v>
+        <v>1279.603035155422</v>
       </c>
       <c r="AC9" t="n">
-        <v>1067.889643296166</v>
+        <v>1157.479517414328</v>
       </c>
       <c r="AD9" t="n">
-        <v>862828.997371232</v>
+        <v>935215.4482983062</v>
       </c>
       <c r="AE9" t="n">
-        <v>1180560.699532168</v>
+        <v>1279603.035155422</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.54513746570361e-06</v>
+        <v>2.878473905454099e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.913736979166666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1067889.643296166</v>
+        <v>1157479.517414327</v>
       </c>
     </row>
     <row r="10">
@@ -13222,28 +13222,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>834.8457442154864</v>
+        <v>895.3100214123341</v>
       </c>
       <c r="AB10" t="n">
-        <v>1142.272778030477</v>
+        <v>1225.002669586851</v>
       </c>
       <c r="AC10" t="n">
-        <v>1033.255867285161</v>
+        <v>1108.090134103527</v>
       </c>
       <c r="AD10" t="n">
-        <v>834845.7442154865</v>
+        <v>895310.0214123341</v>
       </c>
       <c r="AE10" t="n">
-        <v>1142272.778030477</v>
+        <v>1225002.669586851</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.560289562912666e-06</v>
+        <v>2.906701113322178e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1033255.86728516</v>
+        <v>1108090.134103527</v>
       </c>
     </row>
     <row r="11">
@@ -13328,28 +13328,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>811.9617354043281</v>
+        <v>872.4260126011758</v>
       </c>
       <c r="AB11" t="n">
-        <v>1110.961867603833</v>
+        <v>1193.691759160208</v>
       </c>
       <c r="AC11" t="n">
-        <v>1004.933226204497</v>
+        <v>1079.767493022863</v>
       </c>
       <c r="AD11" t="n">
-        <v>811961.7354043281</v>
+        <v>872426.0126011758</v>
       </c>
       <c r="AE11" t="n">
-        <v>1110961.867603833</v>
+        <v>1193691.759160208</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.57195950113579e-06</v>
+        <v>2.928441323108772e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.744466145833334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1004933.226204497</v>
+        <v>1079767.493022863</v>
       </c>
     </row>
     <row r="12">
@@ -13434,28 +13434,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>799.920100342725</v>
+        <v>860.3843775395728</v>
       </c>
       <c r="AB12" t="n">
-        <v>1094.485971273102</v>
+        <v>1177.215862829477</v>
       </c>
       <c r="AC12" t="n">
-        <v>990.0297662955051</v>
+        <v>1064.864033113871</v>
       </c>
       <c r="AD12" t="n">
-        <v>799920.1003427251</v>
+        <v>860384.3775395728</v>
       </c>
       <c r="AE12" t="n">
-        <v>1094485.971273102</v>
+        <v>1177215.862829477</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.577229795817201e-06</v>
+        <v>2.938259482367234e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.7119140625</v>
       </c>
       <c r="AH12" t="n">
-        <v>990029.7662955051</v>
+        <v>1064864.033113871</v>
       </c>
     </row>
     <row r="13">
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>802.7260235188741</v>
+        <v>863.1903007157217</v>
       </c>
       <c r="AB13" t="n">
-        <v>1098.325159151303</v>
+        <v>1181.055050707678</v>
       </c>
       <c r="AC13" t="n">
-        <v>993.5025474709446</v>
+        <v>1068.336814289311</v>
       </c>
       <c r="AD13" t="n">
-        <v>802726.0235188741</v>
+        <v>863190.3007157217</v>
       </c>
       <c r="AE13" t="n">
-        <v>1098325.159151303</v>
+        <v>1181055.050707678</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.577135683412175e-06</v>
+        <v>2.938084158094761e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.7119140625</v>
       </c>
       <c r="AH13" t="n">
-        <v>993502.5474709446</v>
+        <v>1068336.814289311</v>
       </c>
     </row>
   </sheetData>
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1382.138313608569</v>
+        <v>1460.067038886903</v>
       </c>
       <c r="AB2" t="n">
-        <v>1891.102616318195</v>
+        <v>1997.728136216733</v>
       </c>
       <c r="AC2" t="n">
-        <v>1710.618436795978</v>
+        <v>1807.067766725256</v>
       </c>
       <c r="AD2" t="n">
-        <v>1382138.313608569</v>
+        <v>1460067.038886904</v>
       </c>
       <c r="AE2" t="n">
-        <v>1891102.616318196</v>
+        <v>1997728.136216732</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.142875913377228e-06</v>
+        <v>2.29089174541713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.50032552083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1710618.436795978</v>
+        <v>1807067.766725256</v>
       </c>
     </row>
     <row r="3">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>888.9622749257993</v>
+        <v>955.5145836598614</v>
       </c>
       <c r="AB3" t="n">
-        <v>1216.317402801164</v>
+        <v>1307.377207691751</v>
       </c>
       <c r="AC3" t="n">
-        <v>1100.233776990017</v>
+        <v>1182.602961905085</v>
       </c>
       <c r="AD3" t="n">
-        <v>888962.2749257993</v>
+        <v>955514.5836598614</v>
       </c>
       <c r="AE3" t="n">
-        <v>1216317.402801164</v>
+        <v>1307377.20769175</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.476218963746675e-06</v>
+        <v>2.959077008178438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.2255859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1100233.776990017</v>
+        <v>1182602.961905085</v>
       </c>
     </row>
     <row r="4">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>755.667316596016</v>
+        <v>811.1844826955407</v>
       </c>
       <c r="AB4" t="n">
-        <v>1033.937360255822</v>
+        <v>1109.898396157701</v>
       </c>
       <c r="AC4" t="n">
-        <v>935.2598297332048</v>
+        <v>1003.971250980592</v>
       </c>
       <c r="AD4" t="n">
-        <v>755667.3165960161</v>
+        <v>811184.4826955408</v>
       </c>
       <c r="AE4" t="n">
-        <v>1033937.360255822</v>
+        <v>1109898.396157701</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.598091789431534e-06</v>
+        <v>3.203370764905771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.36946614583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>935259.8297332048</v>
+        <v>1003971.250980592</v>
       </c>
     </row>
     <row r="5">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>677.1932730689106</v>
+        <v>743.7454922944216</v>
       </c>
       <c r="AB5" t="n">
-        <v>926.565711871574</v>
+        <v>1017.625394292612</v>
       </c>
       <c r="AC5" t="n">
-        <v>838.1355807736943</v>
+        <v>920.504654907536</v>
       </c>
       <c r="AD5" t="n">
-        <v>677193.2730689106</v>
+        <v>743745.4922944217</v>
       </c>
       <c r="AE5" t="n">
-        <v>926565.7118715739</v>
+        <v>1017625.394292612</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.65938455556544e-06</v>
+        <v>3.326231952499634e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>838135.5807736943</v>
+        <v>920504.654907536</v>
       </c>
     </row>
     <row r="6">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>647.2203111892766</v>
+        <v>702.8227286348217</v>
       </c>
       <c r="AB6" t="n">
-        <v>885.5553831141046</v>
+        <v>961.6330636686326</v>
       </c>
       <c r="AC6" t="n">
-        <v>801.03922023448</v>
+        <v>869.8561537325793</v>
       </c>
       <c r="AD6" t="n">
-        <v>647220.3111892765</v>
+        <v>702822.7286348217</v>
       </c>
       <c r="AE6" t="n">
-        <v>885555.3831141046</v>
+        <v>961633.0636686326</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.682598427124461e-06</v>
+        <v>3.372764096638174e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.8486328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>801039.22023448</v>
+        <v>869856.1537325793</v>
       </c>
     </row>
     <row r="7">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>650.5817973676089</v>
+        <v>706.1842148131543</v>
       </c>
       <c r="AB7" t="n">
-        <v>890.1547168016029</v>
+        <v>966.2323973561309</v>
       </c>
       <c r="AC7" t="n">
-        <v>805.1995999700488</v>
+        <v>874.0165334681482</v>
       </c>
       <c r="AD7" t="n">
-        <v>650581.797367609</v>
+        <v>706184.2148131543</v>
       </c>
       <c r="AE7" t="n">
-        <v>890154.716801603</v>
+        <v>966232.397356131</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.682700242350596e-06</v>
+        <v>3.372968184989658e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.8486328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>805199.5999700488</v>
+        <v>874016.5334681482</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>988.2943122749568</v>
+        <v>1062.72571446849</v>
       </c>
       <c r="AB2" t="n">
-        <v>1352.227878522488</v>
+        <v>1454.068206685393</v>
       </c>
       <c r="AC2" t="n">
-        <v>1223.173147660048</v>
+        <v>1315.293977836884</v>
       </c>
       <c r="AD2" t="n">
-        <v>988294.3122749568</v>
+        <v>1062725.71446849</v>
       </c>
       <c r="AE2" t="n">
-        <v>1352227.878522488</v>
+        <v>1454068.206685393</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.338766538704959e-06</v>
+        <v>2.800783322641369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.89388020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1223173.147660048</v>
+        <v>1315293.977836884</v>
       </c>
     </row>
     <row r="3">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>683.2328569858103</v>
+        <v>747.019010172471</v>
       </c>
       <c r="AB3" t="n">
-        <v>934.8293370343134</v>
+        <v>1022.104365870776</v>
       </c>
       <c r="AC3" t="n">
-        <v>845.6105371489729</v>
+        <v>924.5561597245553</v>
       </c>
       <c r="AD3" t="n">
-        <v>683232.8569858102</v>
+        <v>747019.0101724709</v>
       </c>
       <c r="AE3" t="n">
-        <v>934829.3370343135</v>
+        <v>1022104.365870776</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.630107082301768e-06</v>
+        <v>3.41028595967661e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.58919270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>845610.5371489729</v>
+        <v>924556.1597245553</v>
       </c>
     </row>
     <row r="4">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>602.092040049224</v>
+        <v>655.2330337375637</v>
       </c>
       <c r="AB4" t="n">
-        <v>823.8088916214742</v>
+        <v>896.5187436010414</v>
       </c>
       <c r="AC4" t="n">
-        <v>745.1857272281611</v>
+        <v>810.9562529837167</v>
       </c>
       <c r="AD4" t="n">
-        <v>602092.040049224</v>
+        <v>655233.0337375636</v>
       </c>
       <c r="AE4" t="n">
-        <v>823808.8916214742</v>
+        <v>896518.7436010414</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.719089505336979e-06</v>
+        <v>3.596442753441651e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.04231770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>745185.7272281611</v>
+        <v>810956.2529837167</v>
       </c>
     </row>
     <row r="5">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>600.2603231390335</v>
+        <v>653.4013168273731</v>
       </c>
       <c r="AB5" t="n">
-        <v>821.3026557353046</v>
+        <v>894.0125077148717</v>
       </c>
       <c r="AC5" t="n">
-        <v>742.9186829774436</v>
+        <v>808.6892087329991</v>
       </c>
       <c r="AD5" t="n">
-        <v>600260.3231390335</v>
+        <v>653401.3168273731</v>
       </c>
       <c r="AE5" t="n">
-        <v>821302.6557353046</v>
+        <v>894012.5077148718</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.724286333380751e-06</v>
+        <v>3.607314842708023e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.01139322916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>742918.6829774436</v>
+        <v>808689.208732999</v>
       </c>
     </row>
   </sheetData>
@@ -27412,28 +27412,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>753.908461891693</v>
+        <v>825.5954766028077</v>
       </c>
       <c r="AB2" t="n">
-        <v>1031.530817654174</v>
+        <v>1129.616153789804</v>
       </c>
       <c r="AC2" t="n">
-        <v>933.0829641798543</v>
+        <v>1021.807173498334</v>
       </c>
       <c r="AD2" t="n">
-        <v>753908.4618916931</v>
+        <v>825595.4766028078</v>
       </c>
       <c r="AE2" t="n">
-        <v>1031530.817654174</v>
+        <v>1129616.153789805</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.50184514992611e-06</v>
+        <v>3.264794744598361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.8896484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>933082.9641798544</v>
+        <v>1021807.173498334</v>
       </c>
     </row>
     <row r="3">
@@ -27518,28 +27518,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.8201855488678</v>
+        <v>609.0618602173172</v>
       </c>
       <c r="AB3" t="n">
-        <v>763.2341871577116</v>
+        <v>833.3453070622238</v>
       </c>
       <c r="AC3" t="n">
-        <v>690.3921875412885</v>
+        <v>753.8120005636886</v>
       </c>
       <c r="AD3" t="n">
-        <v>557820.1855488678</v>
+        <v>609061.8602173172</v>
       </c>
       <c r="AE3" t="n">
-        <v>763234.1871577116</v>
+        <v>833345.3070622238</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.739042112022702e-06</v>
+        <v>3.780426729244548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.2685546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>690392.1875412886</v>
+        <v>753812.0005636886</v>
       </c>
     </row>
     <row r="4">
@@ -27624,28 +27624,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>555.4746765600455</v>
+        <v>606.7163512284949</v>
       </c>
       <c r="AB4" t="n">
-        <v>760.0249582826513</v>
+        <v>830.1360781871632</v>
       </c>
       <c r="AC4" t="n">
-        <v>687.4892429658828</v>
+        <v>750.9090559882831</v>
       </c>
       <c r="AD4" t="n">
-        <v>555474.6765600455</v>
+        <v>606716.3512284949</v>
       </c>
       <c r="AE4" t="n">
-        <v>760024.9582826513</v>
+        <v>830136.0781871632</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.746831651481009e-06</v>
+        <v>3.797360064540515e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.22298177083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>687489.2429658828</v>
+        <v>750909.055988283</v>
       </c>
     </row>
   </sheetData>
@@ -27921,28 +27921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.3474874772915</v>
+        <v>526.9094636910453</v>
       </c>
       <c r="AB2" t="n">
-        <v>655.8643796850757</v>
+        <v>720.9407738270348</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.2696037993696</v>
+        <v>652.1351982197128</v>
       </c>
       <c r="AD2" t="n">
-        <v>479347.4874772915</v>
+        <v>526909.4636910453</v>
       </c>
       <c r="AE2" t="n">
-        <v>655864.3796850757</v>
+        <v>720940.7738270349</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.72533533312386e-06</v>
+        <v>4.103756610954153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.1083984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>593269.6037993697</v>
+        <v>652135.1982197128</v>
       </c>
     </row>
     <row r="3">
@@ -28027,28 +28027,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.2262811752041</v>
+        <v>532.788257388958</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.9080045766334</v>
+        <v>728.9843987185926</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.5455564205756</v>
+        <v>659.4111508409188</v>
       </c>
       <c r="AD3" t="n">
-        <v>485226.2811752041</v>
+        <v>532788.257388958</v>
       </c>
       <c r="AE3" t="n">
-        <v>663908.0045766335</v>
+        <v>728984.3987185926</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.72521757886962e-06</v>
+        <v>4.103476529285374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.1083984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>600545.5564205756</v>
+        <v>659411.1508409188</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1855.08544145945</v>
+        <v>1947.186240522657</v>
       </c>
       <c r="AB2" t="n">
-        <v>2538.209741598477</v>
+        <v>2664.226118077246</v>
       </c>
       <c r="AC2" t="n">
-        <v>2295.966566260065</v>
+        <v>2409.956116632795</v>
       </c>
       <c r="AD2" t="n">
-        <v>1855085.44145945</v>
+        <v>1947186.240522658</v>
       </c>
       <c r="AE2" t="n">
-        <v>2538209.741598477</v>
+        <v>2664226.118077246</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.821074342148878e-07</v>
+        <v>1.905856271973386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.31998697916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2295966.566260064</v>
+        <v>2409956.116632795</v>
       </c>
     </row>
     <row r="3">
@@ -28430,28 +28430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1079.88970885615</v>
+        <v>1149.029246663072</v>
       </c>
       <c r="AB3" t="n">
-        <v>1477.552741028581</v>
+        <v>1572.152506877145</v>
       </c>
       <c r="AC3" t="n">
-        <v>1336.537181183109</v>
+        <v>1422.108478150691</v>
       </c>
       <c r="AD3" t="n">
-        <v>1079889.708856151</v>
+        <v>1149029.246663072</v>
       </c>
       <c r="AE3" t="n">
-        <v>1477552.741028581</v>
+        <v>1572152.506877145</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.350803938145555e-06</v>
+        <v>2.621340668069682e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.865234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1336537.181183109</v>
+        <v>1422108.478150691</v>
       </c>
     </row>
     <row r="4">
@@ -28536,28 +28536,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>910.835063121773</v>
+        <v>979.8892600741228</v>
       </c>
       <c r="AB4" t="n">
-        <v>1246.244716570207</v>
+        <v>1340.727715296573</v>
       </c>
       <c r="AC4" t="n">
-        <v>1127.304869936191</v>
+        <v>1212.770543871835</v>
       </c>
       <c r="AD4" t="n">
-        <v>910835.0631217731</v>
+        <v>979889.2600741228</v>
       </c>
       <c r="AE4" t="n">
-        <v>1246244.716570207</v>
+        <v>1340727.715296573</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.485224538536944e-06</v>
+        <v>2.882194354146456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.79264322916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1127304.869936191</v>
+        <v>1212770.543871835</v>
       </c>
     </row>
     <row r="5">
@@ -28642,28 +28642,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>833.1695348892684</v>
+        <v>890.7005650490156</v>
       </c>
       <c r="AB5" t="n">
-        <v>1139.979314481209</v>
+        <v>1218.695808035696</v>
       </c>
       <c r="AC5" t="n">
-        <v>1031.181288678138</v>
+        <v>1102.385190567078</v>
       </c>
       <c r="AD5" t="n">
-        <v>833169.5348892685</v>
+        <v>890700.5650490156</v>
       </c>
       <c r="AE5" t="n">
-        <v>1139979.314481209</v>
+        <v>1218695.808035696</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555241422696854e-06</v>
+        <v>3.018067592828204e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.30598958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1031181.288678138</v>
+        <v>1102385.190567078</v>
       </c>
     </row>
     <row r="6">
@@ -28748,28 +28748,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>778.4557652869609</v>
+        <v>835.9867954467081</v>
       </c>
       <c r="AB6" t="n">
-        <v>1065.117521110174</v>
+        <v>1143.834014664662</v>
       </c>
       <c r="AC6" t="n">
-        <v>963.4641997972485</v>
+        <v>1034.668101686188</v>
       </c>
       <c r="AD6" t="n">
-        <v>778455.7652869609</v>
+        <v>835986.7954467081</v>
       </c>
       <c r="AE6" t="n">
-        <v>1065117.521110174</v>
+        <v>1143834.014664662</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.599752859603014e-06</v>
+        <v>3.104445516715899e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.01953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>963464.1997972485</v>
+        <v>1034668.101686188</v>
       </c>
     </row>
     <row r="7">
@@ -28854,28 +28854,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>724.5961581718835</v>
+        <v>782.2124396776517</v>
       </c>
       <c r="AB7" t="n">
-        <v>991.4244305371579</v>
+        <v>1070.257568744295</v>
       </c>
       <c r="AC7" t="n">
-        <v>896.8042743596186</v>
+        <v>968.1136884992704</v>
       </c>
       <c r="AD7" t="n">
-        <v>724596.1581718836</v>
+        <v>782212.4396776516</v>
       </c>
       <c r="AE7" t="n">
-        <v>991424.4305371579</v>
+        <v>1070257.568744295</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.628803465548405e-06</v>
+        <v>3.160820489164725e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.840494791666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>896804.2743596185</v>
+        <v>968113.6884992705</v>
       </c>
     </row>
     <row r="8">
@@ -28960,28 +28960,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>705.9367395400435</v>
+        <v>763.5530210458113</v>
       </c>
       <c r="AB8" t="n">
-        <v>965.8937907696225</v>
+        <v>1044.726928976759</v>
       </c>
       <c r="AC8" t="n">
-        <v>873.7102430190185</v>
+        <v>945.0196571586707</v>
       </c>
       <c r="AD8" t="n">
-        <v>705936.7395400435</v>
+        <v>763553.0210458114</v>
       </c>
       <c r="AE8" t="n">
-        <v>965893.7907696224</v>
+        <v>1044726.928976759</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.638355698689771e-06</v>
+        <v>3.179357344512305e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.783528645833334</v>
       </c>
       <c r="AH8" t="n">
-        <v>873710.2430190186</v>
+        <v>945019.6571586707</v>
       </c>
     </row>
     <row r="9">
@@ -29066,28 +29066,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>709.1879752479995</v>
+        <v>766.8042567537672</v>
       </c>
       <c r="AB9" t="n">
-        <v>970.3422748996441</v>
+        <v>1049.175413106781</v>
       </c>
       <c r="AC9" t="n">
-        <v>877.7341700671577</v>
+        <v>949.0435842068097</v>
       </c>
       <c r="AD9" t="n">
-        <v>709187.9752479994</v>
+        <v>766804.2567537671</v>
       </c>
       <c r="AE9" t="n">
-        <v>970342.2748996441</v>
+        <v>1049175.413106781</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.640325231296238e-06</v>
+        <v>3.183179376542734e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.7705078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>877734.1700671577</v>
+        <v>949043.5842068096</v>
       </c>
     </row>
   </sheetData>
@@ -29363,28 +29363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2693.054852524684</v>
+        <v>2812.752567365336</v>
       </c>
       <c r="AB2" t="n">
-        <v>3684.756458419444</v>
+        <v>3848.53215255492</v>
       </c>
       <c r="AC2" t="n">
-        <v>3333.088473615923</v>
+        <v>3481.233645363734</v>
       </c>
       <c r="AD2" t="n">
-        <v>2693054.852524684</v>
+        <v>2812752.567365336</v>
       </c>
       <c r="AE2" t="n">
-        <v>3684756.458419444</v>
+        <v>3848532.15255492</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.015798783299035e-07</v>
+        <v>1.504078254816813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.26920572916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3333088.473615923</v>
+        <v>3481233.645363735</v>
       </c>
     </row>
     <row r="3">
@@ -29469,28 +29469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1371.898824240862</v>
+        <v>1455.721298315162</v>
       </c>
       <c r="AB3" t="n">
-        <v>1877.09249523091</v>
+        <v>1991.782102245932</v>
       </c>
       <c r="AC3" t="n">
-        <v>1697.945422001935</v>
+        <v>1801.689213891318</v>
       </c>
       <c r="AD3" t="n">
-        <v>1371898.824240862</v>
+        <v>1455721.298315162</v>
       </c>
       <c r="AE3" t="n">
-        <v>1877092.49523091</v>
+        <v>1991782.102245932</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.204220274180949e-06</v>
+        <v>2.259589564771558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.82552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1697945.422001935</v>
+        <v>1801689.213891318</v>
       </c>
     </row>
     <row r="4">
@@ -29575,28 +29575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1127.526956409288</v>
+        <v>1199.277348433443</v>
       </c>
       <c r="AB4" t="n">
-        <v>1542.732124737822</v>
+        <v>1640.904176509163</v>
       </c>
       <c r="AC4" t="n">
-        <v>1395.495935990979</v>
+        <v>1484.298584926604</v>
       </c>
       <c r="AD4" t="n">
-        <v>1127526.956409288</v>
+        <v>1199277.348433442</v>
       </c>
       <c r="AE4" t="n">
-        <v>1542732.124737822</v>
+        <v>1640904.176509163</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.358519893236758e-06</v>
+        <v>2.549116170943233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.36881510416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1395495.935990979</v>
+        <v>1484298.584926604</v>
       </c>
     </row>
     <row r="5">
@@ -29681,28 +29681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1013.931700440506</v>
+        <v>1085.767343810681</v>
       </c>
       <c r="AB5" t="n">
-        <v>1387.306084052332</v>
+        <v>1485.594780476322</v>
       </c>
       <c r="AC5" t="n">
-        <v>1254.903538486695</v>
+        <v>1343.811699673031</v>
       </c>
       <c r="AD5" t="n">
-        <v>1013931.700440506</v>
+        <v>1085767.343810681</v>
       </c>
       <c r="AE5" t="n">
-        <v>1387306.084052332</v>
+        <v>1485594.780476322</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.438991035278165e-06</v>
+        <v>2.700111596548141e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.73404947916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1254903.538486694</v>
+        <v>1343811.699673031</v>
       </c>
     </row>
     <row r="6">
@@ -29787,28 +29787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>951.9901318912321</v>
+        <v>1011.839034065834</v>
       </c>
       <c r="AB6" t="n">
-        <v>1302.554897294074</v>
+        <v>1384.442805596582</v>
       </c>
       <c r="AC6" t="n">
-        <v>1178.240886043607</v>
+        <v>1252.313527308125</v>
       </c>
       <c r="AD6" t="n">
-        <v>951990.1318912321</v>
+        <v>1011839.034065834</v>
       </c>
       <c r="AE6" t="n">
-        <v>1302554.897294074</v>
+        <v>1384442.805596582</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488336546907329e-06</v>
+        <v>2.792703131117189e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.37760416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1178240.886043607</v>
+        <v>1252313.527308125</v>
       </c>
     </row>
     <row r="7">
@@ -29893,28 +29893,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>905.0785313006204</v>
+        <v>964.9274334752221</v>
       </c>
       <c r="AB7" t="n">
-        <v>1238.368375772245</v>
+        <v>1320.256284074753</v>
       </c>
       <c r="AC7" t="n">
-        <v>1120.180236049473</v>
+        <v>1194.252877313991</v>
       </c>
       <c r="AD7" t="n">
-        <v>905078.5313006204</v>
+        <v>964927.4334752221</v>
       </c>
       <c r="AE7" t="n">
-        <v>1238368.375772245</v>
+        <v>1320256.284074753</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.523447776335773e-06</v>
+        <v>2.858585569175934e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.13834635416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1120180.236049473</v>
+        <v>1194252.877313991</v>
       </c>
     </row>
     <row r="8">
@@ -29999,28 +29999,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>858.1583431832345</v>
+        <v>929.908645698838</v>
       </c>
       <c r="AB8" t="n">
-        <v>1174.170104417429</v>
+        <v>1272.342033719223</v>
       </c>
       <c r="AC8" t="n">
-        <v>1062.108957609921</v>
+        <v>1150.911495764319</v>
       </c>
       <c r="AD8" t="n">
-        <v>858158.3431832345</v>
+        <v>929908.6456988379</v>
       </c>
       <c r="AE8" t="n">
-        <v>1174170.10441743</v>
+        <v>1272342.033719223</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.548500113009041e-06</v>
+        <v>2.905593579034065e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1062108.957609921</v>
+        <v>1150911.495764319</v>
       </c>
     </row>
     <row r="9">
@@ -30105,28 +30105,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>824.0808824720868</v>
+        <v>884.0150359927092</v>
       </c>
       <c r="AB9" t="n">
-        <v>1127.543819280975</v>
+        <v>1209.548372236132</v>
       </c>
       <c r="AC9" t="n">
-        <v>1019.932619686488</v>
+        <v>1094.110773201717</v>
       </c>
       <c r="AD9" t="n">
-        <v>824080.8824720868</v>
+        <v>884015.0359927091</v>
       </c>
       <c r="AE9" t="n">
-        <v>1127543.819280975</v>
+        <v>1209548.372236132</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.568333212875378e-06</v>
+        <v>2.942808253505086e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.8486328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1019932.619686488</v>
+        <v>1094110.773201717</v>
       </c>
     </row>
     <row r="10">
@@ -30211,28 +30211,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>796.094806132552</v>
+        <v>856.0289596531744</v>
       </c>
       <c r="AB10" t="n">
-        <v>1089.252034974673</v>
+        <v>1171.25658792983</v>
       </c>
       <c r="AC10" t="n">
-        <v>985.2953495315226</v>
+        <v>1059.473503046753</v>
       </c>
       <c r="AD10" t="n">
-        <v>796094.806132552</v>
+        <v>856028.9596531744</v>
       </c>
       <c r="AE10" t="n">
-        <v>1089252.034974673</v>
+        <v>1171256.58792983</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.582852180720113e-06</v>
+        <v>2.970051531945595e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.757486979166666</v>
       </c>
       <c r="AH10" t="n">
-        <v>985295.3495315226</v>
+        <v>1059473.503046752</v>
       </c>
     </row>
     <row r="11">
@@ -30317,28 +30317,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>786.5315156430675</v>
+        <v>846.4656691636898</v>
       </c>
       <c r="AB11" t="n">
-        <v>1076.16711902436</v>
+        <v>1158.171671979517</v>
       </c>
       <c r="AC11" t="n">
-        <v>973.4592395947126</v>
+        <v>1047.637393109942</v>
       </c>
       <c r="AD11" t="n">
-        <v>786531.5156430674</v>
+        <v>846465.6691636897</v>
       </c>
       <c r="AE11" t="n">
-        <v>1076167.11902436</v>
+        <v>1158171.671979517</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.587122465380329e-06</v>
+        <v>2.978064260898685e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.7314453125</v>
       </c>
       <c r="AH11" t="n">
-        <v>973459.2395947126</v>
+        <v>1047637.393109942</v>
       </c>
     </row>
     <row r="12">
@@ -30423,28 +30423,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>784.4654148736303</v>
+        <v>844.3995683942528</v>
       </c>
       <c r="AB12" t="n">
-        <v>1073.340188801684</v>
+        <v>1155.344741756841</v>
       </c>
       <c r="AC12" t="n">
-        <v>970.9021076248667</v>
+        <v>1045.080261140096</v>
       </c>
       <c r="AD12" t="n">
-        <v>784465.4148736303</v>
+        <v>844399.5683942528</v>
       </c>
       <c r="AE12" t="n">
-        <v>1073340.188801684</v>
+        <v>1155344.741756841</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.589494845747115e-06</v>
+        <v>2.982515776983736e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.716796875</v>
       </c>
       <c r="AH12" t="n">
-        <v>970902.1076248668</v>
+        <v>1045080.261140096</v>
       </c>
     </row>
   </sheetData>
@@ -30720,28 +30720,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.3175855585444</v>
+        <v>508.1934919919241</v>
       </c>
       <c r="AB2" t="n">
-        <v>620.2491195216203</v>
+        <v>695.3327556579</v>
       </c>
       <c r="AC2" t="n">
-        <v>561.0534140795828</v>
+        <v>628.9711733635611</v>
       </c>
       <c r="AD2" t="n">
-        <v>453317.5855585444</v>
+        <v>508193.4919919241</v>
       </c>
       <c r="AE2" t="n">
-        <v>620249.1195216203</v>
+        <v>695332.7556579</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.638559731252191e-06</v>
+        <v>4.09791353833112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.11100260416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>561053.4140795828</v>
+        <v>628971.173363561</v>
       </c>
     </row>
   </sheetData>
@@ -31017,28 +31017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1118.901003561556</v>
+        <v>1194.428040181364</v>
       </c>
       <c r="AB2" t="n">
-        <v>1530.929715501373</v>
+        <v>1634.269139022288</v>
       </c>
       <c r="AC2" t="n">
-        <v>1384.819932127272</v>
+        <v>1478.296786105143</v>
       </c>
       <c r="AD2" t="n">
-        <v>1118901.003561556</v>
+        <v>1194428.040181364</v>
       </c>
       <c r="AE2" t="n">
-        <v>1530929.715501373</v>
+        <v>1634269.139022288</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.266996994894282e-06</v>
+        <v>2.609105953072488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.42610677083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1384819.932127272</v>
+        <v>1478296.786105143</v>
       </c>
     </row>
     <row r="3">
@@ -31123,28 +31123,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>748.5944322333442</v>
+        <v>813.3927732248302</v>
       </c>
       <c r="AB3" t="n">
-        <v>1024.259927837179</v>
+        <v>1112.919876682777</v>
       </c>
       <c r="AC3" t="n">
-        <v>926.5059978822351</v>
+        <v>1006.70436564503</v>
       </c>
       <c r="AD3" t="n">
-        <v>748594.4322333442</v>
+        <v>813392.7732248302</v>
       </c>
       <c r="AE3" t="n">
-        <v>1024259.927837179</v>
+        <v>1112919.876682777</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.574679841794287e-06</v>
+        <v>3.242712150040681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.80240885416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>926505.9978822351</v>
+        <v>1006704.36564503</v>
       </c>
     </row>
     <row r="4">
@@ -31229,28 +31229,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>646.7285652077538</v>
+        <v>700.7130487334476</v>
       </c>
       <c r="AB4" t="n">
-        <v>884.8825545678836</v>
+        <v>958.7465065550643</v>
       </c>
       <c r="AC4" t="n">
-        <v>800.4306055003894</v>
+        <v>867.2450855786215</v>
       </c>
       <c r="AD4" t="n">
-        <v>646728.5652077538</v>
+        <v>700713.0487334477</v>
       </c>
       <c r="AE4" t="n">
-        <v>884882.5545678836</v>
+        <v>958746.5065550643</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.683685687350233e-06</v>
+        <v>3.467186084632333e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.1025390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>800430.6055003895</v>
+        <v>867245.0855786215</v>
       </c>
     </row>
     <row r="5">
@@ -31335,28 +31335,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>609.33750562937</v>
+        <v>674.0505057662843</v>
       </c>
       <c r="AB5" t="n">
-        <v>833.7224572756115</v>
+        <v>922.2656389990124</v>
       </c>
       <c r="AC5" t="n">
-        <v>754.1531560900445</v>
+        <v>834.2459008209</v>
       </c>
       <c r="AD5" t="n">
-        <v>609337.50562937</v>
+        <v>674050.5057662843</v>
       </c>
       <c r="AE5" t="n">
-        <v>833722.4572756116</v>
+        <v>922265.6389990124</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.71002267016912e-06</v>
+        <v>3.521421397688035e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>754153.1560900445</v>
+        <v>834245.9008209</v>
       </c>
     </row>
     <row r="6">
@@ -31441,28 +31441,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>612.8728054484958</v>
+        <v>677.58580558541</v>
       </c>
       <c r="AB6" t="n">
-        <v>838.5596104545599</v>
+        <v>927.1027921779609</v>
       </c>
       <c r="AC6" t="n">
-        <v>758.5286581585813</v>
+        <v>838.6214028894366</v>
       </c>
       <c r="AD6" t="n">
-        <v>612872.8054484958</v>
+        <v>677585.80558541</v>
       </c>
       <c r="AE6" t="n">
-        <v>838559.6104545599</v>
+        <v>927102.7921779609</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.710231693842285e-06</v>
+        <v>3.52185183668054e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.9462890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>758528.6581585812</v>
+        <v>838621.4028894366</v>
       </c>
     </row>
   </sheetData>
@@ -31738,28 +31738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1533.73416273659</v>
+        <v>1612.563403546556</v>
       </c>
       <c r="AB2" t="n">
-        <v>2098.522745032007</v>
+        <v>2206.380390008863</v>
       </c>
       <c r="AC2" t="n">
-        <v>1898.242679541323</v>
+        <v>1995.806542260743</v>
       </c>
       <c r="AD2" t="n">
-        <v>1533734.16273659</v>
+        <v>1612563.403546556</v>
       </c>
       <c r="AE2" t="n">
-        <v>2098522.745032007</v>
+        <v>2206380.390008863</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.085817366262026e-06</v>
+        <v>2.151204114336201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.0830078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1898242.679541323</v>
+        <v>1995806.542260743</v>
       </c>
     </row>
     <row r="3">
@@ -31844,28 +31844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>952.1503089617512</v>
+        <v>1019.5475607338</v>
       </c>
       <c r="AB3" t="n">
-        <v>1302.774058628471</v>
+        <v>1394.989951859889</v>
       </c>
       <c r="AC3" t="n">
-        <v>1178.439130927845</v>
+        <v>1261.854068735074</v>
       </c>
       <c r="AD3" t="n">
-        <v>952150.3089617512</v>
+        <v>1019547.5607338</v>
       </c>
       <c r="AE3" t="n">
-        <v>1302774.058628472</v>
+        <v>1394989.951859889</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.431858133806749e-06</v>
+        <v>2.836774585024941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.43880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1178439.130927845</v>
+        <v>1261854.068735074</v>
       </c>
     </row>
     <row r="4">
@@ -31950,28 +31950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>809.2897248042997</v>
+        <v>865.6816023027391</v>
       </c>
       <c r="AB4" t="n">
-        <v>1107.305904820086</v>
+        <v>1184.463759447504</v>
       </c>
       <c r="AC4" t="n">
-        <v>1001.626183377655</v>
+        <v>1071.420200651161</v>
       </c>
       <c r="AD4" t="n">
-        <v>809289.7248042997</v>
+        <v>865681.602302739</v>
       </c>
       <c r="AE4" t="n">
-        <v>1107305.904820086</v>
+        <v>1184463.759447504</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.556529407720071e-06</v>
+        <v>3.083771332097738e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1001626.183377655</v>
+        <v>1071420.200651161</v>
       </c>
     </row>
     <row r="5">
@@ -32056,28 +32056,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>736.7144045955131</v>
+        <v>792.9356898933604</v>
       </c>
       <c r="AB5" t="n">
-        <v>1008.005149913269</v>
+        <v>1084.929592765839</v>
       </c>
       <c r="AC5" t="n">
-        <v>911.8025531496589</v>
+        <v>981.3854351405136</v>
       </c>
       <c r="AD5" t="n">
-        <v>736714.4045955131</v>
+        <v>792935.6898933604</v>
       </c>
       <c r="AE5" t="n">
-        <v>1008005.149913269</v>
+        <v>1084929.592765839</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.623644613289228e-06</v>
+        <v>3.216738911030391e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.08626302083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>911802.553149659</v>
+        <v>981385.4351405136</v>
       </c>
     </row>
     <row r="6">
@@ -32162,28 +32162,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>678.0208095768816</v>
+        <v>734.3273462207494</v>
       </c>
       <c r="AB6" t="n">
-        <v>927.6979838301139</v>
+        <v>1004.739071335334</v>
       </c>
       <c r="AC6" t="n">
-        <v>839.1597902856649</v>
+        <v>908.848184527232</v>
       </c>
       <c r="AD6" t="n">
-        <v>678020.8095768816</v>
+        <v>734327.3462207494</v>
       </c>
       <c r="AE6" t="n">
-        <v>927697.9838301139</v>
+        <v>1004739.071335334</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.660371824732619e-06</v>
+        <v>3.289502278812126e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.86328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>839159.790285665</v>
+        <v>908848.184527232</v>
       </c>
     </row>
     <row r="7">
@@ -32268,28 +32268,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>668.7514732296644</v>
+        <v>725.0580098735322</v>
       </c>
       <c r="AB7" t="n">
-        <v>915.0152689055928</v>
+        <v>992.0563564108126</v>
       </c>
       <c r="AC7" t="n">
-        <v>827.687495873238</v>
+        <v>897.375890114805</v>
       </c>
       <c r="AD7" t="n">
-        <v>668751.4732296644</v>
+        <v>725058.0098735322</v>
       </c>
       <c r="AE7" t="n">
-        <v>915015.2689055928</v>
+        <v>992056.3564108126</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.668119757009718e-06</v>
+        <v>3.304852359138684e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>827687.4958732381</v>
+        <v>897375.890114805</v>
       </c>
     </row>
     <row r="8">
@@ -32374,28 +32374,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>672.3541692890426</v>
+        <v>728.6607059329104</v>
       </c>
       <c r="AB8" t="n">
-        <v>919.9446365937667</v>
+        <v>996.9857240989866</v>
       </c>
       <c r="AC8" t="n">
-        <v>832.1464116276635</v>
+        <v>901.8348058692305</v>
       </c>
       <c r="AD8" t="n">
-        <v>672354.1692890426</v>
+        <v>728660.7059329104</v>
       </c>
       <c r="AE8" t="n">
-        <v>919944.6365937667</v>
+        <v>996985.7240989866</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.668119757009718e-06</v>
+        <v>3.304852359138684e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>832146.4116276635</v>
+        <v>901834.8058692305</v>
       </c>
     </row>
   </sheetData>
